--- a/results/mp/tinybert/corona/confidence/126/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,21 +46,15 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -70,91 +64,91 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>safety</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>share</t>
   </si>
   <si>
     <t>online</t>
@@ -166,10 +160,13 @@
     <t>store</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>consumer</t>
-  </si>
-  <si>
-    <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
@@ -536,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,10 +541,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -605,13 +602,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.88</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -623,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -647,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -655,13 +652,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7792207792207793</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="C4">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="D4">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -673,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.9375</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -705,13 +702,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7142857142857143</v>
+        <v>0.3062015503875969</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -723,19 +720,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>358</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -755,13 +752,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6666666666666666</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -773,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L6">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -797,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -805,13 +802,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5107296137339056</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="C7">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -823,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.9019607843137255</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -847,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -855,13 +852,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3375</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -873,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.9</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -897,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -905,163 +902,115 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2558139534883721</v>
+        <v>0.08086253369272237</v>
       </c>
       <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>0.06</v>
+      </c>
+      <c r="F9">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>341</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>64</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9">
+        <v>0.8392857142857143</v>
+      </c>
+      <c r="L9">
+        <v>94</v>
+      </c>
+      <c r="M9">
+        <v>94</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>0.8292682926829268</v>
+      </c>
+      <c r="L10">
+        <v>68</v>
+      </c>
+      <c r="M10">
+        <v>68</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K9">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L9">
-        <v>48</v>
-      </c>
-      <c r="M9">
-        <v>48</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.1636363636363636</v>
-      </c>
-      <c r="C10">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>92</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L10">
-        <v>14</v>
-      </c>
-      <c r="M10">
-        <v>14</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.1021505376344086</v>
-      </c>
-      <c r="C11">
-        <v>19</v>
-      </c>
-      <c r="D11">
-        <v>19</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>167</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11">
+        <v>0.796875</v>
+      </c>
+      <c r="L11">
+        <v>102</v>
+      </c>
+      <c r="M11">
+        <v>102</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>26</v>
-      </c>
-      <c r="K11">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L11">
-        <v>22</v>
-      </c>
-      <c r="M11">
-        <v>22</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L12">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M12">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1073,21 +1022,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7758620689655172</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1099,21 +1048,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.7254901960784313</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1125,21 +1074,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.7241379310344828</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1151,21 +1100,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.717948717948718</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1177,21 +1126,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.7083333333333334</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1203,21 +1152,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6986301369863014</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L18">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="M18">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1229,21 +1178,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K19">
         <v>0.68</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1255,21 +1204,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6572769953051644</v>
+        <v>0.675</v>
       </c>
       <c r="L20">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="M20">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1281,21 +1230,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.64</v>
+        <v>0.6083550913838121</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>233</v>
       </c>
       <c r="M21">
-        <v>16</v>
+        <v>233</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1307,21 +1256,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.5769230769230769</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1333,47 +1282,47 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23">
+        <v>0.5730337078651685</v>
+      </c>
+      <c r="L23">
+        <v>51</v>
+      </c>
+      <c r="M23">
+        <v>51</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>38</v>
-      </c>
-      <c r="K23">
-        <v>0.5757575757575758</v>
-      </c>
-      <c r="L23">
-        <v>19</v>
-      </c>
-      <c r="M23">
-        <v>19</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>14</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5555555555555556</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L24">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="M24">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1385,21 +1334,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5116279069767442</v>
+        <v>0.5205882352941177</v>
       </c>
       <c r="L25">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="M25">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1411,21 +1360,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>63</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5108695652173914</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L26">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="M26">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1437,21 +1386,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.4813559322033898</v>
       </c>
       <c r="L27">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="M27">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1463,21 +1412,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1489,21 +1438,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.46875</v>
+        <v>0.4560669456066946</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1515,21 +1464,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>17</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.4054054054054054</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1541,21 +1490,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.4</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L31">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M31">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1567,21 +1516,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.1212121212121212</v>
+        <v>0.1004784688995215</v>
       </c>
       <c r="L32">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M32">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1593,21 +1542,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>174</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.08133971291866028</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1619,21 +1568,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>192</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.07317073170731707</v>
+        <v>0.06823266219239374</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1645,137 +1594,163 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>380</v>
+        <v>833</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.04761904761904762</v>
+        <v>0.06011560693641618</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>300</v>
+        <v>813</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.04288939051918736</v>
+        <v>0.05327413984461709</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="N36">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>424</v>
+        <v>853</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>0.03491495076096687</v>
+        <v>0.04636785162287481</v>
       </c>
       <c r="L37">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M37">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N37">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="O37">
-        <v>0.13</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>1078</v>
+        <v>617</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>0.01738570508692852</v>
+        <v>0.04174484052532833</v>
       </c>
       <c r="L38">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="M38">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="N38">
-        <v>0.71</v>
+        <v>0.89</v>
       </c>
       <c r="O38">
-        <v>0.29</v>
+        <v>0.11</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>1526</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>0.01068510370835952</v>
+        <v>0.0293832741362609</v>
       </c>
       <c r="L39">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="M39">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="N39">
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
       <c r="O39">
-        <v>0.26</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>1574</v>
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K40">
+        <v>0.01630094043887147</v>
+      </c>
+      <c r="L40">
+        <v>52</v>
+      </c>
+      <c r="M40">
+        <v>63</v>
+      </c>
+      <c r="N40">
+        <v>0.83</v>
+      </c>
+      <c r="O40">
+        <v>0.17</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>3138</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,112 +49,121 @@
     <t>panic</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>good</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
   <si>
     <t>store</t>
@@ -163,16 +172,13 @@
     <t>supermarket</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
     <t>co</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
   <si>
     <t>corona</t>
@@ -533,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,7 +547,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
         <v>21</v>
@@ -602,13 +608,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -620,19 +626,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -644,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -652,13 +658,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6301369863013698</v>
+        <v>0.6472602739726028</v>
       </c>
       <c r="C4">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D4">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -694,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -702,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3062015503875969</v>
+        <v>0.3003875968992248</v>
       </c>
       <c r="C5">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D5">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -720,19 +726,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.8813559322033898</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,13 +758,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2592592592592592</v>
+        <v>0.2684563758389262</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -770,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.9347826086956522</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -802,13 +808,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.174496644295302</v>
+        <v>0.2275132275132275</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -820,31 +826,31 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="L7">
+        <v>92</v>
+      </c>
+      <c r="M7">
+        <v>92</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>20</v>
-      </c>
-      <c r="K7">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L7">
-        <v>32</v>
-      </c>
-      <c r="M7">
-        <v>32</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,13 +858,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1388888888888889</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -870,69 +876,45 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8170731707317073</v>
+      </c>
+      <c r="L8">
+        <v>67</v>
+      </c>
+      <c r="M8">
+        <v>67</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K8">
-        <v>0.8448275862068966</v>
-      </c>
-      <c r="L8">
-        <v>49</v>
-      </c>
-      <c r="M8">
-        <v>49</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.08086253369272237</v>
-      </c>
-      <c r="C9">
-        <v>30</v>
-      </c>
-      <c r="D9">
-        <v>32</v>
-      </c>
-      <c r="E9">
-        <v>0.06</v>
-      </c>
-      <c r="F9">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>341</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K9">
-        <v>0.8392857142857143</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L9">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -944,21 +926,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>0.8292682926829268</v>
+        <v>0.7734375</v>
       </c>
       <c r="L10">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="M10">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -970,21 +952,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.796875</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L11">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="M11">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -996,21 +978,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.7619047619047619</v>
+        <v>0.75</v>
       </c>
       <c r="L12">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="M12">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1022,21 +1004,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7464788732394366</v>
+        <v>0.75</v>
       </c>
       <c r="L13">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="M13">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1048,21 +1030,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.723404255319149</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L14">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="M14">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1074,21 +1056,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7222222222222222</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L15">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M15">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1100,21 +1082,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7166666666666667</v>
+        <v>0.70625</v>
       </c>
       <c r="L16">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="M16">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1126,21 +1108,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.7058823529411765</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1152,21 +1134,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6981132075471698</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1178,21 +1160,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.68</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1204,21 +1186,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.675</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L20">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1230,21 +1212,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6083550913838121</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L21">
-        <v>233</v>
+        <v>59</v>
       </c>
       <c r="M21">
-        <v>233</v>
+        <v>59</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1256,21 +1238,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6041666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1282,21 +1264,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5730337078651685</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L23">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1308,21 +1290,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5638297872340425</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L24">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M24">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1334,21 +1316,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5205882352941177</v>
+        <v>0.5535248041775457</v>
       </c>
       <c r="L25">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="M25">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1360,21 +1342,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5076923076923077</v>
+        <v>0.5058823529411764</v>
       </c>
       <c r="L26">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="M26">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1386,21 +1368,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>32</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.4813559322033898</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="L27">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1412,21 +1394,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>153</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.4743589743589743</v>
+        <v>0.4779661016949153</v>
       </c>
       <c r="L28">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="M28">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1438,21 +1420,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>41</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.4560669456066946</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L29">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1464,21 +1446,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>130</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.410958904109589</v>
+        <v>0.4375</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1490,21 +1472,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.3571428571428572</v>
+        <v>0.4309623430962343</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1516,21 +1498,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>45</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.1004784688995215</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L32">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1542,21 +1524,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>376</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.08653846153846154</v>
+        <v>0.1209302325581395</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1568,21 +1550,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>380</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34">
+        <v>0.1129807692307692</v>
+      </c>
+      <c r="L34">
         <v>47</v>
       </c>
-      <c r="K34">
-        <v>0.06823266219239374</v>
-      </c>
-      <c r="L34">
-        <v>61</v>
-      </c>
       <c r="M34">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1594,163 +1576,241 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>833</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.06011560693641618</v>
+        <v>0.08633093525179857</v>
       </c>
       <c r="L35">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M35">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="N35">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O35">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>813</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.05327413984461709</v>
+        <v>0.06163328197226502</v>
       </c>
       <c r="L36">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="M36">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>853</v>
+        <v>609</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37">
+        <v>0.05549389567147614</v>
+      </c>
+      <c r="L37">
         <v>50</v>
       </c>
-      <c r="K37">
-        <v>0.04636785162287481</v>
-      </c>
-      <c r="L37">
-        <v>30</v>
-      </c>
       <c r="M37">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="N37">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>617</v>
+        <v>851</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>0.04174484052532833</v>
+        <v>0.05480984340044743</v>
       </c>
       <c r="L38">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="M38">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="N38">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>2043</v>
+        <v>845</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K39">
-        <v>0.0293832741362609</v>
+        <v>0.0530565167243368</v>
       </c>
       <c r="L39">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="M39">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="N39">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>3006</v>
+        <v>821</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K40">
+        <v>0.0473511486169714</v>
+      </c>
+      <c r="L40">
+        <v>101</v>
+      </c>
+      <c r="M40">
+        <v>111</v>
+      </c>
+      <c r="N40">
+        <v>0.91</v>
+      </c>
+      <c r="O40">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K40">
-        <v>0.01630094043887147</v>
-      </c>
-      <c r="L40">
-        <v>52</v>
-      </c>
-      <c r="M40">
-        <v>63</v>
-      </c>
-      <c r="N40">
-        <v>0.83</v>
-      </c>
-      <c r="O40">
-        <v>0.17</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>3138</v>
+      <c r="K41">
+        <v>0.03264382676147382</v>
+      </c>
+      <c r="L41">
+        <v>101</v>
+      </c>
+      <c r="M41">
+        <v>114</v>
+      </c>
+      <c r="N41">
+        <v>0.89</v>
+      </c>
+      <c r="O41">
+        <v>0.11</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42">
+        <v>0.02904564315352697</v>
+      </c>
+      <c r="L42">
+        <v>28</v>
+      </c>
+      <c r="M42">
+        <v>32</v>
+      </c>
+      <c r="N42">
+        <v>0.88</v>
+      </c>
+      <c r="O42">
+        <v>0.12</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K43">
+        <v>0.0206961429915334</v>
+      </c>
+      <c r="L43">
+        <v>66</v>
+      </c>
+      <c r="M43">
+        <v>78</v>
+      </c>
+      <c r="N43">
+        <v>0.85</v>
+      </c>
+      <c r="O43">
+        <v>0.15</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>3123</v>
       </c>
     </row>
   </sheetData>
